--- a/data/trans_bre/P41C_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P41C_R-Habitat-trans_bre.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-3.661372576492338</v>
+        <v>-3.661372576492337</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>-0.7346554829471446</v>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-13.61387077852575</v>
+        <v>-12.3902410152546</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>-1</v>
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0879085151602659</v>
+        <v>0.2106621294741395</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.264180955374395</v>
+        <v>0.6761140495513697</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>2.804903209969346</v>
+        <v>2.804903209969345</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>1.187669680549971</v>
+        <v>1.18766968054997</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.1441890020234276</v>
+        <v>-0.3312694178769804</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1264759609233107</v>
+        <v>-0.1754618915536497</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.62118057653171</v>
+        <v>5.92126910653336</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.371010616535767</v>
+        <v>5.160756222051393</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-2.12284083011144</v>
+        <v>-2.122840830111441</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-0.3603073627456744</v>
+        <v>-0.3603073627456745</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.316137290750257</v>
+        <v>-8.170070932506775</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.8836935574377208</v>
+        <v>-0.8418016963249985</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.309155678550825</v>
+        <v>3.478104507034358</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1.861846284125471</v>
+        <v>1.856044549422653</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.1111829865226864</v>
+        <v>0.1111829865226857</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.02165070703790684</v>
+        <v>0.0216507070379067</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.984004344303564</v>
+        <v>-4.85628196039202</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6227221807816792</v>
+        <v>-0.5947448088829875</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.408201631356855</v>
+        <v>4.311085930711004</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.659834654532305</v>
+        <v>1.613394059737569</v>
       </c>
     </row>
     <row r="16">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.386177495061912</v>
+        <v>-2.548850150260916</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.425399835735401</v>
+        <v>-0.458802411108093</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.888763937740487</v>
+        <v>1.924210761454697</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.6535207292173179</v>
+        <v>0.6505430891126508</v>
       </c>
     </row>
     <row r="19">
